--- a/biology/Médecine/Ligament_ménisco-fémoral_postérieur/Ligament_ménisco-fémoral_postérieur.xlsx
+++ b/biology/Médecine/Ligament_ménisco-fémoral_postérieur/Ligament_ménisco-fémoral_postérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_m%C3%A9nisco-f%C3%A9moral_post%C3%A9rieur</t>
+          <t>Ligament_ménisco-fémoral_postérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament ménisco-fémoral postérieur (ou ligament ménisco-fémoral postérieur de Wrisberg ou ligament croisé de Robert) est un ligament de l'articulation fémoro-tibiale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_m%C3%A9nisco-f%C3%A9moral_post%C3%A9rieur</t>
+          <t>Ligament_ménisco-fémoral_postérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament ménisco-fémoral postérieur est une petite bande fibreuse qui s'attache à la corne postérieure du ménisque latéral de l'articulation du genou. Il se dirige en haut et en dedans en passant derrière le ligament croisé postérieur pour s'attacher à la partie antérieure de la face latérale du condyle médial du fémur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament ménisco-fémoral postérieur est une petite bande fibreuse qui s'attache à la corne postérieure du ménisque latéral de l'articulation du genou. Il se dirige en haut et en dedans en passant derrière le ligament croisé postérieur pour s'attacher à la partie antérieure de la face latérale du condyle médial du fémur.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_m%C3%A9nisco-f%C3%A9moral_post%C3%A9rieur</t>
+          <t>Ligament_ménisco-fémoral_postérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Variation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament ménisco-fémoral postérieur est retrouvé chez 64,4 % des sujets en IRM du genou[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament ménisco-fémoral postérieur est retrouvé chez 64,4 % des sujets en IRM du genou.
 </t>
         </is>
       </c>
